--- a/Documents/Project planing/Version 3/Group 41 CPR101 ZBB Final-Project-Plan.xlsx
+++ b/Documents/Project planing/Version 3/Group 41 CPR101 ZBB Final-Project-Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Seneca cpp\CPR101\group project\CPR101_Group_41_2024Final_Project\Documents\Project planing\Version 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Seneca cpp\CPR101\group project\CPR101_Group_41_2024Final_Project\Documents\Project planing\Version 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90260DC4-D4DD-426B-88E6-A93A69727F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2DF5FD-F35F-4689-B513-40CFFCD42B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BE53037F-2E3B-4DFB-BE79-B796A3FA1C85}"/>
   </bookViews>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -212,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="64">
   <si>
     <t>Project Planning</t>
   </si>
@@ -834,6 +845,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -841,15 +861,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -861,18 +872,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
@@ -883,6 +882,18 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -912,9 +923,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -952,7 +963,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1058,7 +1069,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1200,7 +1211,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1211,7 +1222,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,27 +1255,27 @@
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
       <c r="Q1" s="16" t="s">
         <v>37</v>
       </c>
@@ -1402,62 +1413,62 @@
       <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>45497</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="13" t="s">
         <v>28</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="13" t="s">
         <v>28</v>
       </c>
       <c r="Q4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="U4" s="10" t="s">
-        <v>44</v>
+      <c r="U4" s="13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="60" x14ac:dyDescent="0.25">
@@ -1467,31 +1478,31 @@
       <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="14"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="14"/>
     </row>
     <row r="6" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1500,31 +1511,31 @@
       <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="R6" s="14"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="14"/>
     </row>
     <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1533,31 +1544,31 @@
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="15"/>
       <c r="L7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="12"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="15"/>
       <c r="Q7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="R7" s="14"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="12"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="15"/>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1566,10 +1577,10 @@
       <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="8" t="s">
         <v>22</v>
       </c>
@@ -1578,7 +1589,9 @@
         <v>13</v>
       </c>
       <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="K8" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="L8" s="8" t="s">
         <v>22</v>
       </c>
@@ -1603,7 +1616,7 @@
         <v>48</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1636,62 +1649,62 @@
       <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="13" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="13" t="s">
         <v>28</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" s="10" t="s">
+      <c r="P10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="R10" s="14" t="s">
+      <c r="R10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="T10" s="13" t="s">
+      <c r="T10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="U10" s="10" t="s">
-        <v>44</v>
+      <c r="U10" s="13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -1701,29 +1714,29 @@
       <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="14"/>
     </row>
     <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -1732,29 +1745,29 @@
       <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="14"/>
     </row>
     <row r="13" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1763,44 +1776,47 @@
       <c r="B13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="12"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="12"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="15"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="L1:P1"/>
@@ -1817,18 +1833,15 @@
     <mergeCell ref="T10:T13"/>
     <mergeCell ref="U10:U13"/>
     <mergeCell ref="Q10:Q13"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="C4:C8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B1:F1">
@@ -1836,19 +1849,17 @@
       <formula>NOT(ISERROR(SEARCH("complete",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="in progress">
-      <formula>NOT(ISERROR(SEARCH("in progress",F1)))</formula>
+  <conditionalFormatting sqref="C2:F2">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="not yet started">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="in progress">
+      <formula>NOT(ISERROR(SEARCH("in progress",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="not yet started">
       <formula>NOT(ISERROR(SEARCH("not yet started",F1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:F2">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
